--- a/DOC/20180611汽配云系统推进计划.xlsx
+++ b/DOC/20180611汽配云系统推进计划.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="58">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,147 +94,151 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>与市场其他软件库存对接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速报价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速报价功能开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涉及打印功能优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录页面开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加采购入库功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加销售出库功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物流管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物流查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库后评价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购退货后评价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注品牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利润表界面显示结构确定，功能开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统一提示模式优化，确定方案，统一修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础数据维护功能测试</t>
+  </si>
+  <si>
+    <t>系统导航功能测试</t>
+  </si>
+  <si>
+    <t>进销存测试</t>
+  </si>
+  <si>
+    <t>结算模块测试</t>
+  </si>
+  <si>
+    <t>统计报表测试</t>
+  </si>
+  <si>
+    <t>查询条件测试</t>
+  </si>
+  <si>
+    <t>导入导出测试</t>
+  </si>
+  <si>
+    <t>UI一致性测试</t>
+  </si>
+  <si>
+    <t>机构维护功能测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工管理测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色权限测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划发布日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际发布日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存分布按配件编码匹配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>配件信息添加实物码，图片</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>与市场其他软件库存对接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快速报价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快速报价功能开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打印</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>涉及打印功能优化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录页面开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加采购入库功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加销售出库功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报表管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物流管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物流查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入库后评价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购退货后评价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关注品牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公共</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>配件信息页下的客户销价显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>利润表界面显示结构确定，功能开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>统一提示模式优化，确定方案，统一修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础数据维护功能测试</t>
-  </si>
-  <si>
-    <t>系统导航功能测试</t>
-  </si>
-  <si>
-    <t>进销存测试</t>
-  </si>
-  <si>
-    <t>结算模块测试</t>
-  </si>
-  <si>
-    <t>统计报表测试</t>
-  </si>
-  <si>
-    <t>查询条件测试</t>
-  </si>
-  <si>
-    <t>导入导出测试</t>
-  </si>
-  <si>
-    <t>UI一致性测试</t>
-  </si>
-  <si>
-    <t>机构维护功能测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工管理测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色权限测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划发布日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际发布日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -265,7 +269,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -275,6 +279,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -316,6 +332,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -617,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -658,17 +679,17 @@
         <v>6</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -688,7 +709,7 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
+      <c r="B3" s="11"/>
       <c r="C3" t="s">
         <v>10</v>
       </c>
@@ -698,6 +719,7 @@
       <c r="E3" s="2">
         <v>43262</v>
       </c>
+      <c r="F3" s="10"/>
       <c r="H3" s="2">
         <v>43262</v>
       </c>
@@ -706,7 +728,7 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="6"/>
+      <c r="B4" s="11"/>
       <c r="C4" t="s">
         <v>11</v>
       </c>
@@ -716,6 +738,7 @@
       <c r="E4" s="2">
         <v>43262</v>
       </c>
+      <c r="F4" s="10"/>
       <c r="H4" s="2">
         <v>43262</v>
       </c>
@@ -724,7 +747,7 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="6"/>
+      <c r="B5" s="11"/>
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -734,6 +757,7 @@
       <c r="E5" s="2">
         <v>43262</v>
       </c>
+      <c r="F5" s="10"/>
       <c r="H5" s="2">
         <v>43262</v>
       </c>
@@ -742,7 +766,7 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="6"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="9" t="s">
         <v>15</v>
       </c>
@@ -761,10 +785,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -781,10 +805,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
@@ -803,7 +827,7 @@
       <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="12" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
@@ -812,6 +836,7 @@
       <c r="E9" s="2">
         <v>43262</v>
       </c>
+      <c r="F9" s="10"/>
       <c r="H9" s="2">
         <v>43262</v>
       </c>
@@ -819,10 +844,10 @@
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
@@ -838,11 +863,11 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C11" t="s">
-        <v>19</v>
+      <c r="C11" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
@@ -850,6 +875,7 @@
       <c r="E11" s="2">
         <v>43262</v>
       </c>
+      <c r="F11" s="10"/>
       <c r="H11" s="2">
         <v>43262</v>
       </c>
@@ -858,9 +884,9 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="6"/>
+      <c r="B12" s="11"/>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
@@ -874,9 +900,9 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
-      <c r="B13" s="6"/>
+      <c r="B13" s="11"/>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
@@ -891,10 +917,10 @@
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D14" t="s">
         <v>13</v>
@@ -911,10 +937,10 @@
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
         <v>21</v>
-      </c>
-      <c r="C15" t="s">
-        <v>22</v>
       </c>
       <c r="D15" t="s">
         <v>13</v>
@@ -931,10 +957,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
       </c>
       <c r="D16" t="s">
         <v>13</v>
@@ -951,10 +977,10 @@
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
         <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>13</v>
@@ -970,11 +996,11 @@
       <c r="A18" s="1">
         <v>14</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
         <v>34</v>
-      </c>
-      <c r="C18" t="s">
-        <v>35</v>
       </c>
       <c r="D18" t="s">
         <v>13</v>
@@ -990,9 +1016,9 @@
       <c r="A19" s="1">
         <v>15</v>
       </c>
-      <c r="B19" s="6"/>
+      <c r="B19" s="11"/>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19" t="s">
         <v>13</v>
@@ -1008,11 +1034,11 @@
       <c r="A20" s="1">
         <v>16</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" t="s">
-        <v>39</v>
+      <c r="B20" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="D20" t="s">
         <v>13</v>
@@ -1028,12 +1054,12 @@
       <c r="A21" s="1">
         <v>17</v>
       </c>
-      <c r="B21" s="6"/>
+      <c r="B21" s="11"/>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E21" s="2">
         <v>43266</v>
@@ -1043,26 +1069,31 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="5">
-        <v>18</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="A22" s="6"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="2">
+        <v>43262</v>
+      </c>
+      <c r="F22" s="10"/>
       <c r="H22" s="2">
         <v>43262</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="5">
-        <v>19</v>
-      </c>
-      <c r="B23" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="C23" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H23" s="2">
         <v>43262</v>
@@ -1070,11 +1101,11 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="5">
-        <v>20</v>
-      </c>
-      <c r="B24" s="6"/>
+        <v>19</v>
+      </c>
+      <c r="B24" s="11"/>
       <c r="C24" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H24" s="2">
         <v>43262</v>
@@ -1082,11 +1113,11 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="5">
-        <v>21</v>
-      </c>
-      <c r="B25" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="B25" s="11"/>
       <c r="C25" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H25" s="2">
         <v>43262</v>
@@ -1094,11 +1125,11 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="5">
-        <v>22</v>
-      </c>
-      <c r="B26" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="B26" s="11"/>
       <c r="C26" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H26" s="2">
         <v>43262</v>
@@ -1106,11 +1137,11 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="5">
-        <v>23</v>
-      </c>
-      <c r="B27" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="B27" s="11"/>
       <c r="C27" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H27" s="2">
         <v>43262</v>
@@ -1118,11 +1149,11 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="5">
-        <v>24</v>
-      </c>
-      <c r="B28" s="6"/>
+        <v>23</v>
+      </c>
+      <c r="B28" s="11"/>
       <c r="C28" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H28" s="2">
         <v>43262</v>
@@ -1130,11 +1161,11 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="5">
-        <v>25</v>
-      </c>
-      <c r="B29" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="B29" s="11"/>
       <c r="C29" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H29" s="2">
         <v>43262</v>
@@ -1142,11 +1173,11 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="5">
-        <v>26</v>
-      </c>
-      <c r="B30" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="B30" s="11"/>
       <c r="C30" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H30" s="2">
         <v>43262</v>
@@ -1154,11 +1185,11 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="5">
-        <v>27</v>
-      </c>
-      <c r="B31" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="B31" s="11"/>
       <c r="C31" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H31" s="2">
         <v>43262</v>
@@ -1166,23 +1197,35 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="5">
+        <v>27</v>
+      </c>
+      <c r="B32" s="11"/>
+      <c r="C32" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H32" s="2">
+        <v>43262</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="5">
         <v>28</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H32" s="2">
+      <c r="B33" s="11"/>
+      <c r="C33" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H33" s="2">
         <v>43262</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B20:B21"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B22:B32"/>
+    <mergeCell ref="B23:B33"/>
+    <mergeCell ref="B20:B22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DOC/20180611汽配云系统推进计划.xlsx
+++ b/DOC/20180611汽配云系统推进计划.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="64">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -239,6 +239,30 @@
   </si>
   <si>
     <t>配件信息页下的客户销价显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成6项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务18项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待定2项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中4项（有延时）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未开始6项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度40%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -265,6 +289,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -333,10 +358,10 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -638,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -654,9 +679,10 @@
     <col min="6" max="6" width="14.75" customWidth="1"/>
     <col min="7" max="7" width="12.625" customWidth="1"/>
     <col min="8" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -685,11 +711,11 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -705,11 +731,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="11"/>
+      <c r="B3" s="12"/>
       <c r="C3" t="s">
         <v>10</v>
       </c>
@@ -724,11 +750,11 @@
         <v>43262</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="11"/>
+      <c r="B4" s="12"/>
       <c r="C4" t="s">
         <v>11</v>
       </c>
@@ -743,11 +769,11 @@
         <v>43262</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="11"/>
+      <c r="B5" s="12"/>
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -762,11 +788,11 @@
         <v>43262</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="11"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="9" t="s">
         <v>15</v>
       </c>
@@ -780,7 +806,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -800,7 +826,7 @@
         <v>43263</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -820,14 +846,14 @@
         <v>43263</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
@@ -841,7 +867,7 @@
         <v>43262</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>31</v>
@@ -858,15 +884,18 @@
       <c r="H10" s="2">
         <v>43265</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>56</v>
       </c>
       <c r="D11" t="s">
@@ -879,12 +908,15 @@
       <c r="H11" s="2">
         <v>43262</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="11"/>
+      <c r="B12" s="12"/>
       <c r="C12" t="s">
         <v>19</v>
       </c>
@@ -897,10 +929,13 @@
       <c r="H12" s="2">
         <v>43281</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
-      <c r="B13" s="11"/>
+      <c r="B13" s="12"/>
       <c r="C13" t="s">
         <v>36</v>
       </c>
@@ -913,8 +948,11 @@
       <c r="H13" s="2">
         <v>43264</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>30</v>
@@ -931,8 +969,11 @@
       <c r="H14" s="2">
         <v>43265</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -951,15 +992,18 @@
       <c r="H15" s="2">
         <v>43263</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="11" t="s">
         <v>23</v>
       </c>
       <c r="D16" t="s">
@@ -996,7 +1040,7 @@
       <c r="A18" s="1">
         <v>14</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="12" t="s">
         <v>33</v>
       </c>
       <c r="C18" t="s">
@@ -1016,7 +1060,7 @@
       <c r="A19" s="1">
         <v>15</v>
       </c>
-      <c r="B19" s="11"/>
+      <c r="B19" s="12"/>
       <c r="C19" t="s">
         <v>35</v>
       </c>
@@ -1034,10 +1078,10 @@
       <c r="A20" s="1">
         <v>16</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="11" t="s">
         <v>57</v>
       </c>
       <c r="D20" t="s">
@@ -1054,7 +1098,7 @@
       <c r="A21" s="1">
         <v>17</v>
       </c>
-      <c r="B21" s="11"/>
+      <c r="B21" s="12"/>
       <c r="C21" t="s">
         <v>39</v>
       </c>
@@ -1070,8 +1114,8 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="6"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12" t="s">
+      <c r="B22" s="12"/>
+      <c r="C22" s="11" t="s">
         <v>55</v>
       </c>
       <c r="D22" t="s">
@@ -1089,7 +1133,7 @@
       <c r="A23" s="5">
         <v>18</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C23" s="7" t="s">
@@ -1103,7 +1147,7 @@
       <c r="A24" s="5">
         <v>19</v>
       </c>
-      <c r="B24" s="11"/>
+      <c r="B24" s="12"/>
       <c r="C24" s="7" t="s">
         <v>42</v>
       </c>
@@ -1115,7 +1159,7 @@
       <c r="A25" s="5">
         <v>20</v>
       </c>
-      <c r="B25" s="11"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="7" t="s">
         <v>43</v>
       </c>
@@ -1127,7 +1171,7 @@
       <c r="A26" s="5">
         <v>21</v>
       </c>
-      <c r="B26" s="11"/>
+      <c r="B26" s="12"/>
       <c r="C26" s="7" t="s">
         <v>44</v>
       </c>
@@ -1139,7 +1183,7 @@
       <c r="A27" s="5">
         <v>22</v>
       </c>
-      <c r="B27" s="11"/>
+      <c r="B27" s="12"/>
       <c r="C27" s="7" t="s">
         <v>45</v>
       </c>
@@ -1151,7 +1195,7 @@
       <c r="A28" s="5">
         <v>23</v>
       </c>
-      <c r="B28" s="11"/>
+      <c r="B28" s="12"/>
       <c r="C28" s="7" t="s">
         <v>46</v>
       </c>
@@ -1163,7 +1207,7 @@
       <c r="A29" s="5">
         <v>24</v>
       </c>
-      <c r="B29" s="11"/>
+      <c r="B29" s="12"/>
       <c r="C29" s="7" t="s">
         <v>47</v>
       </c>
@@ -1175,7 +1219,7 @@
       <c r="A30" s="5">
         <v>25</v>
       </c>
-      <c r="B30" s="11"/>
+      <c r="B30" s="12"/>
       <c r="C30" s="7" t="s">
         <v>48</v>
       </c>
@@ -1187,7 +1231,7 @@
       <c r="A31" s="5">
         <v>26</v>
       </c>
-      <c r="B31" s="11"/>
+      <c r="B31" s="12"/>
       <c r="C31" s="7" t="s">
         <v>49</v>
       </c>
@@ -1199,7 +1243,7 @@
       <c r="A32" s="5">
         <v>27</v>
       </c>
-      <c r="B32" s="11"/>
+      <c r="B32" s="12"/>
       <c r="C32" s="7" t="s">
         <v>50</v>
       </c>
@@ -1211,7 +1255,7 @@
       <c r="A33" s="5">
         <v>28</v>
       </c>
-      <c r="B33" s="11"/>
+      <c r="B33" s="12"/>
       <c r="C33" s="7" t="s">
         <v>51</v>
       </c>
